--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -54,7 +54,6 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
         <sz val="8"/>
         <rFont val="Century Schoolbook"/>
         <family val="1"/>
@@ -78,6 +77,24 @@
 (Larger jets of fire have a difficulty of 14,  do + 3  fire damage and apply a Moderate burn)</t>
   </si>
   <si>
+    <t xml:space="preserve">Fresh Air Charm \\{\it klinneract}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gust of air refreshes the air in a 2m radius (+1 per POW) around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halt spell \\{\it stabit}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop 1 inanimate object (+1 for every power point dedicated) in its tracks, if mid-air, it drops to the ground. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -170,9 +187,6 @@
       </rPr>
       <t xml:space="preserve">wingardium leviosa}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Dependent</t>
   </si>
   <si>
     <t xml:space="preserve">FIN \\ (precision)</t>
@@ -182,6 +196,15 @@
 Each power point dedicated doubles the mass of the object that can be lifted.</t>
   </si>
   <si>
+    <t xml:space="preserve">Marker Charm \\ {\it stylum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN \\ (dexterity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -195,8 +218,8 @@
       <rPr>
         <i val="true"/>
         <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aguamente}</t>
@@ -223,8 +246,8 @@
       <rPr>
         <i val="true"/>
         <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">diffindo}</t>
@@ -388,6 +411,15 @@
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
+    <t xml:space="preserve">Elemental Blade Charm \\ {\it gladio subtantia}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Adept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a sword made out of pure fire, water, air, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect, i.e. a blade of fire causes burns etc. This spell lasts as long as you maintain concentration, and no other spells can be cast whilst it is active.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -407,9 +439,6 @@
       </rPr>
       <t xml:space="preserve">pluma gravitas}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3: Adept</t>
   </si>
   <si>
     <t xml:space="preserve">INT \\ (arcane)</t>
@@ -440,9 +469,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Take control of an existing fire, and manipulate it to your will, creating walls of fire, or sending it flying towards your enemies.  
 Range of the spell is 1m + 1 for every power point dedicated. More power points also let you perform more extravagant feats. \\ Manipulated fire does 1d8 worth of damage, and applies a moderate burn status. </t>
   </si>
@@ -468,7 +494,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Freeze the target. When used the combat, trap the target in place and do 1d6 worth of damage by encasing them in a block of ice. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+    <t xml:space="preserve">Lower the temperature by 40 degrees celsius, freezing the target.  When used the combat, trap the target in place and do 1d6 +1 for every CV over the DV worth of damage by encasing them in a block of ice. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
   </si>
   <si>
     <r>
@@ -609,6 +635,12 @@
 Lasts for 5 turns.</t>
   </si>
   <si>
+    <t xml:space="preserve">Freedom charm \\ {\it liber}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -749,30 +781,6 @@
   <si>
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with 15 blades at once. 
 The more power points dedicated to the spell, more and heavier objects can be controlled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Blade Charm \\ {\it gladio subtantia}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a sword made out of pure fire, water, air, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect, i.e. a blade of fire causes burns etc. This spell lasts as long as you maintain concentration, and no other spells can be cast whilst it is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt spell \\{\it stabit}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop 1 inanimate object (+1 for every power point dedicated) in its tracks, if mid-air, it drops to the ground. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom charm \\ {\it liber}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh Air Charm \\{\it klinneract}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gust of air refreshes the air in a 2m radius (+1 per POW) around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -811,6 +819,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="8"/>
       <name val="Century Schoolbook"/>
@@ -818,9 +832,10 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="8"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -902,47 +917,39 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1012,14 +1019,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1053,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1072,59 +1079,59 @@
       <c r="F2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -1133,65 +1140,65 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1199,41 +1206,41 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1245,18 +1252,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1268,137 +1275,137 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -1406,295 +1413,318 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3" t="n">
+      <c r="E24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="D25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
+      <c r="G30" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,6 +43,21 @@
     <t xml:space="preserve">Effect</t>
   </si>
   <si>
+    <t xml:space="preserve">Banshee Wail \\ {\it magnus surgerus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR \\ (performance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All targets in hearing range take 2 points of psychic damage (+3 per PP), and awaken if they are sleeping. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -64,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Effect Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Beginner</t>
   </si>
   <si>
     <t xml:space="preserve">SPR</t>
@@ -74,13 +86,10 @@
   <si>
     <t xml:space="preserve">A small jet of fire is emitted from the tip of your wand. 
 Coming into contact with fire does 1d6 fire damage, and applies a minor Burned status effect.
-(Larger jets of fire have a difficulty of 14,  do + 3  fire damage and apply a Moderate burn)</t>
+(Larger jets of fire have a difficulty of 9,  do 4d6  fire damage and apply a Moderate burn)</t>
   </si>
   <si>
     <t xml:space="preserve">Fresh Air Charm \\{\it klinneract}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Dependent</t>
   </si>
   <si>
     <t xml:space="preserve">POW</t>
@@ -205,9 +214,15 @@
     <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
+    <t xml:space="preserve">Preservation Charm \\ {\it preseritas}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target is unaffected by the flow of time for 10 days, and does not rot or otherwise decay. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -217,7 +232,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -235,7 +250,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -245,7 +260,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="8"/>
+        <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -285,6 +300,37 @@
     <t xml:space="preserve">Fix the target. Can only fix an object if you know what it is supposed to be when repaired. </t>
   </si>
   <si>
+    <t xml:space="preserve">Haste Charm \\ {\it silvam currere}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target has their Speed proficiency increased by 1 point (+1 per PP) for 5 minutes. At the end of the effect, target must take 1 turn to rest. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lightning Charm   \\ {\it </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">baubilious}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
+Lightning can initiate fires, blind your foes, or can be used directly in combat, where it deals 1 damage for every check point over the difficulty, + 3 for every power point dedicated. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -337,6 +383,15 @@
   </si>
   <si>
     <t xml:space="preserve">Target performs a resist magic check. If the check fails, they cannot speak for 2 turns +1 for each power point dedicated.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smokescreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN \\ (deception)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick white smoke issues from the end of your wand, giving a Severe obscuration for all targets in a 10m radius. </t>
   </si>
   <si>
     <r>
@@ -521,6 +576,18 @@
     <t xml:space="preserve">End any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields or curses).  </t>
   </si>
   <si>
+    <t xml:space="preserve">Ironmass Charm \\ {\it ferrus gravitas}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leapfrog Charm \\ {\it raneus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target may leap up to 3m in any direction, and land safely for 1 minute.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -570,7 +637,7 @@
   </si>
   <si>
     <t xml:space="preserve">Manipulate bodies of water, creating whirlpools, waves or maelstroms.
-Range of the spell is 1m +1 for every power point dedicated. More power points also let you perform more extravagant feats. \\ Being trapped in turbulent water does 1d4 worth of damage whilst the target is trapped. This spell may be maintained indefinitely once cast, but no other spells may be cast until this spell is halted. Requires a source of water to manipulate. </t>
+Range of the spell is 1m +1 for every power point dedicated. More power points also let you perform more extravagant feats. \\ Being trapped in turbulent water does 1d4 worth of damage whilst the target is trapped and target cannot breathe. This spell may be maintained indefinitely once cast, but no other spells may be cast until this spell is halted. Requires a source of water to manipulate. </t>
   </si>
   <si>
     <t xml:space="preserve">Cushioning Charm  \\ {\it sofus }</t>
@@ -603,7 +670,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">POW \\ (strength)</t>
+    <t xml:space="preserve">FIN \\ (strength)</t>
   </si>
   <si>
     <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
@@ -648,31 +715,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Lightning Charm   \\ {\it </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">baubilious}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
-Lightning can initiate fires, blind your foes, or can be used directly in combat, where it deals 1 damage for every check point over the difficulty, + 3 for every power point dedicated. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Air Manipulation Spell   \\ {\it </t>
     </r>
     <r>
@@ -690,7 +732,7 @@
     <t xml:space="preserve">5: Master</t>
   </si>
   <si>
-    <t xml:space="preserve">FIN </t>
+    <t xml:space="preserve">FIN \\ (willpower)</t>
   </si>
   <si>
     <t xml:space="preserve">Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly!
@@ -790,7 +832,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -813,6 +855,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -833,7 +881,7 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="8"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -917,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -930,6 +978,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,8 +990,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1019,14 +1075,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,49 +1116,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1111,620 +1167,758 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="3" t="n">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="E29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3" t="n">
+      <c r="E34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="E35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="3" t="n">
+      <c r="G35" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>83</v>
+      <c r="G36" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -358,6 +358,13 @@
     <t xml:space="preserve">Magically lock an object. </t>
   </si>
   <si>
+    <t xml:space="preserve">Mage Hands \\ {\it titillatio}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can
+use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -612,6 +619,12 @@
     <t xml:space="preserve">Reveal the last spell that a wand cast.</t>
   </si>
   <si>
+    <t xml:space="preserve">Spider hands \\ {\it aranerum fiducia}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 5 minutes, the target has the ability to traverse up vertical walls using their hands and feet. Climbing movement checks are half the speed of a regular movement check. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -706,6 +719,12 @@
   </si>
   <si>
     <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teleport Object \\ {\it cruratele}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
   </si>
   <si>
     <r>
@@ -965,7 +984,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -992,6 +1011,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1075,14 +1098,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1439,71 +1462,71 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1518,10 +1541,10 @@
         <v>36</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>6</v>
@@ -1530,7 +1553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1541,82 +1564,82 @@
         <v>36</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="F22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3" t="n">
+      <c r="D23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>66</v>
@@ -1627,25 +1650,25 @@
         <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -1653,41 +1676,41 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1695,129 +1718,129 @@
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -1826,33 +1849,33 @@
         <v>9</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -1860,65 +1883,134 @@
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3" t="n">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="3" t="n">
+      <c r="E37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="3" t="n">
+      <c r="G37" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F38" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="G38" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F39" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>97</v>
+      <c r="G39" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -842,6 +842,17 @@
   <si>
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with 15 blades at once. 
 The more power points dedicated to the spell, more and heavier objects can be controlled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap Spell  \\ {\it  dolus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN \\ (stealth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine a magical ward with one of your existing spells. Cast the other spell first, then perform the trapping check.
+If successful, creates a hidden magical trap of radius 50cm on any solid surface, with the effect of the original spell when triggered by an entity touching the trap. The effects of the trap are less than the original spell, but more power points make the trap more powerful. 
+If you wish to keep a trap hidden from the GM, write down the location, spell and associated check values on a piece of paper, to be revealed when the trap is triggered. </t>
   </si>
 </sst>
 </file>
@@ -851,7 +862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -903,6 +914,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="aakar"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -984,7 +1001,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1018,6 +1035,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,14 +1123,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2013,6 +2038,29 @@
         <v>103</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54883A73-0F23-4841-80BD-EE55EE2F4C80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,69 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="173">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banshee Wail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnus surgerus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Banshee Wail</t>
+  </si>
+  <si>
+    <t>magnus surgerus</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
   <si>
     <t xml:space="preserve">All targets in hearing range take 2 points of psychic damage (+3 per PP), and awaken if they are sleeping. </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incendio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A small jet of fire is emitted from the tip of your wand. 
+    <t>Create Fire</t>
+  </si>
+  <si>
+    <t>incendio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>A small jet of fire is emitted from the tip of your wand. 
 Coming into contact with fire does 1d6 fire damage, and applies a minor Burned status effect.</t>
   </si>
   <si>
@@ -93,7 +98,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
+      <t>An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +108,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -116,19 +121,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth</t>
+    <t>Create Trap</t>
+  </si>
+  <si>
+    <t>dolus</t>
+  </si>
+  <si>
+    <t>Ritual (2 turns)</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Stealth</t>
   </si>
   <si>
     <t xml:space="preserve">Combine a magical ward with one of your existing spells. After casting the trap spell, cast the effect-spell to imbue the trap with that effect. 
@@ -142,7 +147,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 10</t>
+      <t>A character above 10</t>
     </r>
     <r>
       <rPr>
@@ -152,7 +157,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -165,16 +170,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
+    <t>Create Water</t>
+  </si>
+  <si>
+    <t>aguamente</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
   </si>
   <si>
     <r>
@@ -184,7 +189,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
+      <t>An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +199,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -207,31 +212,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fresh Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klinneract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gust of air refreshes the air in a 2m radius (+1 per POW) around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stabit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illuminate Wand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumos</t>
+    <t>Fresh Air</t>
+  </si>
+  <si>
+    <t>klinneract</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>A gust of air refreshes the air in a 2m radius (+1 per POW) around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>stabit</t>
+  </si>
+  <si>
+    <t>Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
+  </si>
+  <si>
+    <t>Illuminate Wand</t>
+  </si>
+  <si>
+    <t>lumos</t>
   </si>
   <si>
     <t xml:space="preserve">INT </t>
@@ -240,13 +245,13 @@
     <t xml:space="preserve">Causes the tip of your wand to glow, like a torch. Casts bright light for 2m radius, and dim light for 10m. Spell last indefinitely, until concentration is broken, and does not require extra FP per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Levitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wingardium leviosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
+    <t>Levitation</t>
+  </si>
+  <si>
+    <t>wingardium leviosa</t>
+  </si>
+  <si>
+    <t>Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
 Each power point dedicated doubles the mass of the object that can be lifted.</t>
   </si>
   <si>
@@ -257,7 +262,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 6</t>
+      <t>A character above 6</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +272,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +291,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -299,40 +304,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mark Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dxterity</t>
+    <t>Mark Surface</t>
+  </si>
+  <si>
+    <t>stylum</t>
+  </si>
+  <si>
+    <t>Dxterity</t>
   </si>
   <si>
     <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
   </si>
   <si>
-    <t xml:space="preserve">Preserve Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preseritas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexterity</t>
+    <t>Preserve Object</t>
+  </si>
+  <si>
+    <t>preseritas</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cut Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
+    <t>Cut Object</t>
+  </si>
+  <si>
+    <t>diffindo</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
   <si>
     <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of 10cm in length.
@@ -346,7 +351,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a character above 6</t>
+      <t>When cast by a character above 6</t>
     </r>
     <r>
       <rPr>
@@ -356,7 +361,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -369,13 +374,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Elemental Blade</t>
+    <t>Elemental Blade</t>
   </si>
   <si>
     <t xml:space="preserve"> gladio subtantia</t>
   </si>
   <si>
-    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
+    <t>The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
   </si>
   <si>
     <r>
@@ -385,7 +390,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If the caster exceeds 8</t>
+      <t>If the caster exceeds 8</t>
     </r>
     <r>
       <rPr>
@@ -395,7 +400,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -414,7 +419,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -427,86 +432,86 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fix Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bear hands (i.e. you cannot repair complex machinery without expert knowledge).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silvam currere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightning Bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baubilious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
+    <t>Fix Object</t>
+  </si>
+  <si>
+    <t>reparo</t>
+  </si>
+  <si>
+    <t>Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bear hands (i.e. you cannot repair complex machinery without expert knowledge).</t>
+  </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>silvam currere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>baubilious</t>
+  </si>
+  <si>
+    <t>Releases a bolt of lightning from the end of your wand. 
 Lightning can initiate fires, provide electrical current or can be used directly in combat, where it deals 1 damage\cvdv. Targets struck by lightning must succeed in a SPR(health) check, or be blinded for 2 turns.</t>
   </si>
   <si>
-    <t xml:space="preserve">An expert level caster may do 3 electric damage \cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colloportus</t>
+    <t>An expert level caster may do 3 electric damage \cvdv.</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>colloportus</t>
   </si>
   <si>
     <t xml:space="preserve">Magically lock a door or chest. Mundane attempts to open the lock fail, and magical attempts must exceed the casting check of the locking spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Lockpurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nulsupium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1+PP) minutes</t>
+    <t>Lockpurse</t>
+  </si>
+  <si>
+    <t>nulsupium</t>
+  </si>
+  <si>
+    <t>(1+PP) minutes</t>
   </si>
   <si>
     <t xml:space="preserve">A target container, such as a backpack, cannot be opened by mundane means. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mage Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titillatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dexterity</t>
+    <t>Mage Hands</t>
+  </si>
+  <si>
+    <t>titillatio</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. Hands may be moved at a speed of 2m per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silencio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2+2$\times$PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>silencio</t>
+  </si>
+  <si>
+    <t>(2+2$\times$PP) turns</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">Target performs a resist magic check. If the check fails, they cannot speak until the spell ends. </t>
@@ -515,37 +520,37 @@
     <t xml:space="preserve">A master-level caster may cast this spell on 1d4 targets within range. </t>
   </si>
   <si>
-    <t xml:space="preserve">Smokescreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumus insterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obharesco</t>
+    <t>Smokescreen</t>
+  </si>
+  <si>
+    <t>fumus insterio</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>obharesco</t>
   </si>
   <si>
     <t xml:space="preserve">Stick two objects together, as if you had fused them together at a molecular level. To break them apart requires either slicing the objects apart, or pulling them hard enough to break one (or both) of the objects. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
+    <t>Summon Object</t>
+  </si>
+  <si>
+    <t>accio</t>
+  </si>
+  <si>
+    <t>Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
   </si>
   <si>
     <r>
@@ -555,7 +560,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If the caster exceeds 11</t>
+      <t>If the caster exceeds 11</t>
     </r>
     <r>
       <rPr>
@@ -565,7 +570,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -578,74 +583,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Unlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alohomora</t>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>alohomora</t>
   </si>
   <si>
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Featherweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pluma gravitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
+    <t>Featherweight</t>
+  </si>
+  <si>
+    <t>pluma gravitas</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Make the target object as light as a feather, it does not encumber you.
 (Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
   </si>
   <si>
-    <t xml:space="preserve">Freeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glacius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower the temperature in a cone of length 4m by 40 degrees celsius, freezing the target.  When used the combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Counterspell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finite incantatem</t>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>glacius</t>
+  </si>
+  <si>
+    <t>Lower the temperature in a cone of length 4m by 40 degrees celsius, freezing the target.  When used the combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+  </si>
+  <si>
+    <t>When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
+  </si>
+  <si>
+    <t>General Counterspell</t>
+  </si>
+  <si>
+    <t>finite incantatem</t>
   </si>
   <si>
     <t xml:space="preserve">End any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields or curses).  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ironmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferrus gravitas</t>
+    <t>Ironmass</t>
+  </si>
+  <si>
+    <t>ferrus gravitas</t>
   </si>
   <si>
     <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
   </si>
   <si>
-    <t xml:space="preserve">Leapfrog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raneus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target may leap up to 3m in any direction, and land safely whilst the spell is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Flame</t>
+    <t>Leapfrog</t>
+  </si>
+  <si>
+    <t>raneus</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>Target may leap up to 3m in any direction, and land safely whilst the spell is active.</t>
+  </si>
+  <si>
+    <t>Manipulate Flame</t>
   </si>
   <si>
     <t xml:space="preserve"> ignipare</t>
@@ -658,7 +663,7 @@
     <t xml:space="preserve">When cast by an expert level caster, fire does 3d8 damage, and a Master-level caster does 5d8. </t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate Water</t>
+    <t>Manipulate Water</t>
   </si>
   <si>
     <t xml:space="preserve"> aguapare</t>
@@ -671,92 +676,92 @@
     <t xml:space="preserve">When cast by an expert level caster, turbulent buffeting does 5d4 damage, and a Master-level caster does 7d4. </t>
   </si>
   <si>
-    <t xml:space="preserve">Replay Spell</t>
+    <t>Replay Spell</t>
   </si>
   <si>
     <t xml:space="preserve"> priori incantatem</t>
   </si>
   <si>
-    <t xml:space="preserve">Reveal the last spell that a wand cast.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aranerum fiducia</t>
+    <t>Reveal the last spell that a wand cast.</t>
+  </si>
+  <si>
+    <t>Spider Hands</t>
+  </si>
+  <si>
+    <t>aranerum fiducia</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue the target with the ability to traverse up vertical walls using their hands and feet. Climbing movement checks are half the speed of a regular movement check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cushion Fall</t>
+    <t>Cushion Fall</t>
   </si>
   <si>
     <t xml:space="preserve">sofus </t>
   </si>
   <si>
-    <t xml:space="preserve">Painlessly break the fall of the target from any height up to (100+ $100\times$PP) metres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarditia hoovium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Earth</t>
+    <t>Painlessly break the fall of the target from any height up to (100+ $100\times$PP) metres.</t>
+  </si>
+  <si>
+    <t>Free Movement</t>
+  </si>
+  <si>
+    <t>liber</t>
+  </si>
+  <si>
+    <t>Remove all impediments to movement if the casting check exceeds the trapping check</t>
+  </si>
+  <si>
+    <t>Internal Extension</t>
+  </si>
+  <si>
+    <t>tarditia hoovium</t>
+  </si>
+  <si>
+    <t>3 minutes</t>
+  </si>
+  <si>
+    <t>Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside.</t>
+  </si>
+  <si>
+    <t>Manipulate Earth</t>
   </si>
   <si>
     <t xml:space="preserve"> defodio </t>
   </si>
   <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
 Range is 3m + 1 for every power point dedicated to the spell. More power points also let you perform more extravagant feats. \\ Violent earth manipulation causes 5 + 3d8 of damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a master level caster, tremors do an additional 3d8 damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cruratele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Air</t>
+    <t>When cast by a master level caster, tremors do an additional 3d8 damage.</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>cruratele</t>
+  </si>
+  <si>
+    <t>You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
+  </si>
+  <si>
+    <t>Manipulate Air</t>
   </si>
   <si>
     <t xml:space="preserve"> vente</t>
   </si>
   <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Kinesis</t>
+    <t>Willpower</t>
+  </si>
+  <si>
+    <t>Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
+  </si>
+  <si>
+    <t>Mass Kinesis</t>
   </si>
   <si>
     <t xml:space="preserve"> ballatutti</t>
@@ -765,74 +770,31 @@
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with multiple blades at once. Can only use the objects if you would normally be able to use them without magic. You may only perform 4 unique actions with the objects, but you may duplicate those exact actions an arbitrary number of times in a 10m radius. For example, you could only copy out 4 books at a time, as each book requires a unique action, but you can copy the same book out as many times as you like, as the action is identical. </t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse Hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tempus fugit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 hour)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Control time itself, stepping backwards through the hours to relive them again. 
-Reverse time by 1 hour + 1 for each power point dedicated to the spell, but beware, even when successfully cast, this is a </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">very</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> unstable spell. </t>
-    </r>
+    <t>Planewalk</t>
+  </si>
+  <si>
+    <t>ambulo mundus</t>
+  </si>
+  <si>
+    <t>Ritual (2 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By carefully preparing every atom in your body, you may slip effortlessly between this world and the Astral Realm, without the need for a portal. Your entire body enters into the astral realm, where you may perceive things in both the Mortal World, and the Astral Realm, but you may only interact with the astral realm. Cast this spell again to cross back over. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -859,13 +821,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -882,14 +837,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -904,7 +859,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -920,133 +875,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1105,39 +1010,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="95.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="36.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.57"/>
+    <col min="1" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="7" width="11.5703125" style="2"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1"/>
+    <col min="10" max="10" width="95.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" style="3" customWidth="1"/>
+    <col min="12" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1182,13 +1394,13 @@
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="n">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="8">
         <v>3</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1197,14 +1409,14 @@
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1214,20 +1426,20 @@
       <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="n">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="13">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>3</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -1237,7 +1449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1247,13 +1459,13 @@
       <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="n">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="13">
         <v>4</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -1262,7 +1474,7 @@
       <c r="H4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="10">
         <v>5</v>
       </c>
       <c r="J4" s="16" t="s">
@@ -1272,7 +1484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -1282,20 +1494,20 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="n">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="13">
         <v>4</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -1305,7 +1517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
@@ -1315,27 +1527,27 @@
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="n">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1345,27 +1557,27 @@
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="n">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>41</v>
       </c>
@@ -1375,27 +1587,27 @@
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="n">
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
@@ -1405,20 +1617,20 @@
       <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="n">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="13">
         <v>5</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>4</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1428,7 +1640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>49</v>
       </c>
@@ -1438,13 +1650,13 @@
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="n">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -1453,14 +1665,14 @@
       <c r="H10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>2</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1473,10 +1685,10 @@
       <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1485,14 +1697,14 @@
       <c r="H11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="7">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1502,13 +1714,13 @@
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="n">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="13">
         <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1517,7 +1729,7 @@
       <c r="H12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="10">
         <v>5</v>
       </c>
       <c r="J12" s="15" t="s">
@@ -1527,7 +1739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
@@ -1537,20 +1749,20 @@
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="n">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>9</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="11">
         <v>8</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -1560,7 +1772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>67</v>
       </c>
@@ -1570,13 +1782,13 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8" t="n">
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="20">
         <v>4</v>
       </c>
       <c r="G14" s="21" t="s">
@@ -1585,14 +1797,14 @@
       <c r="H14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="18">
         <v>6</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -1605,24 +1817,24 @@
       <c r="D15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="12">
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="12">
         <v>5</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="11">
         <v>5</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -1632,20 +1844,20 @@
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="n">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="13">
         <v>8</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="10">
         <v>5</v>
       </c>
       <c r="J16" s="15" t="s">
@@ -1655,7 +1867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>78</v>
       </c>
@@ -1665,27 +1877,27 @@
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="n">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
         <v>2</v>
       </c>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="20">
         <v>5</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="18">
         <v>6</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -1698,23 +1910,23 @@
       <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>6</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>85</v>
       </c>
@@ -1724,13 +1936,13 @@
       <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="n">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="12">
         <v>3</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -1739,14 +1951,14 @@
       <c r="H19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="11">
         <v>5</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>89</v>
       </c>
@@ -1759,10 +1971,10 @@
       <c r="D20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="20">
         <v>6</v>
       </c>
       <c r="G20" s="21" t="s">
@@ -1771,7 +1983,7 @@
       <c r="H20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="18">
         <v>5</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -1781,7 +1993,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>96</v>
       </c>
@@ -1794,10 +2006,10 @@
       <c r="D21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F21" s="12">
         <v>5</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1806,14 +2018,14 @@
       <c r="H21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="11">
         <v>3</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>101</v>
       </c>
@@ -1823,27 +2035,27 @@
       <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12" t="n">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
         <v>2</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="13">
         <v>4</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="10">
         <v>6</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>104</v>
       </c>
@@ -1853,20 +2065,20 @@
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="n">
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
         <v>2</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="13">
         <v>6</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="10">
         <v>6</v>
       </c>
       <c r="J23" s="15" t="s">
@@ -1876,7 +2088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>108</v>
       </c>
@@ -1886,13 +2098,13 @@
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12" t="n">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
         <v>2</v>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="F24" s="20">
         <v>3</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -1901,14 +2113,14 @@
       <c r="H24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="18" t="n">
+      <c r="I24" s="18">
         <v>5</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>111</v>
       </c>
@@ -1921,10 +2133,10 @@
       <c r="D25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="12">
         <v>3</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="13">
         <v>8</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -1933,14 +2145,14 @@
       <c r="H25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="10">
         <v>7</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>116</v>
       </c>
@@ -1950,20 +2162,20 @@
       <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12" t="n">
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
         <v>3</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="13">
         <v>7</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="10">
         <v>7</v>
       </c>
       <c r="J26" s="15" t="s">
@@ -1973,7 +2185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>120</v>
       </c>
@@ -1983,13 +2195,13 @@
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12" t="n">
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
         <v>3</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="13">
         <v>4</v>
       </c>
       <c r="G27" s="14" t="s">
@@ -1998,14 +2210,14 @@
       <c r="H27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="10">
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>123</v>
       </c>
@@ -2018,10 +2230,10 @@
       <c r="D28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="12">
         <v>3</v>
       </c>
-      <c r="F28" s="20" t="n">
+      <c r="F28" s="20">
         <v>8</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -2030,14 +2242,14 @@
       <c r="H28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="18" t="n">
+      <c r="I28" s="18">
         <v>7</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>126</v>
       </c>
@@ -2050,24 +2262,24 @@
       <c r="D29" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="12">
         <v>3</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="12">
         <v>5</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="11">
         <v>7</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>130</v>
       </c>
@@ -2077,13 +2289,13 @@
       <c r="C30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12" t="n">
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
         <v>3</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="13">
         <v>6</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -2092,7 +2304,7 @@
       <c r="H30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="10">
         <v>6</v>
       </c>
       <c r="J30" s="15" t="s">
@@ -2102,7 +2314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>134</v>
       </c>
@@ -2112,13 +2324,13 @@
       <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12" t="n">
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
         <v>3</v>
       </c>
-      <c r="F31" s="13" t="n">
+      <c r="F31" s="13">
         <v>5</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -2127,7 +2339,7 @@
       <c r="H31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I31" s="10">
         <v>6</v>
       </c>
       <c r="J31" s="15" t="s">
@@ -2137,7 +2349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>138</v>
       </c>
@@ -2147,13 +2359,13 @@
       <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="12" t="n">
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
         <v>3</v>
       </c>
-      <c r="F32" s="20" t="n">
+      <c r="F32" s="20">
         <v>3</v>
       </c>
       <c r="G32" s="21" t="s">
@@ -2162,14 +2374,14 @@
       <c r="H32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="18" t="n">
+      <c r="I32" s="18">
         <v>6</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>141</v>
       </c>
@@ -2182,10 +2394,10 @@
       <c r="D33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="12">
         <v>3</v>
       </c>
-      <c r="F33" s="12" t="n">
+      <c r="F33" s="12">
         <v>6</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2194,14 +2406,14 @@
       <c r="H33" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="I33" s="11">
         <v>9</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>144</v>
       </c>
@@ -2211,27 +2423,27 @@
       <c r="C34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12" t="n">
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
         <v>4</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="13">
         <v>7</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="10" t="n">
+      <c r="I34" s="10">
         <v>9</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>147</v>
       </c>
@@ -2241,27 +2453,27 @@
       <c r="C35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="n">
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
         <v>4</v>
       </c>
-      <c r="F35" s="22" t="n">
+      <c r="F35" s="22">
         <v>8</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="17" t="n">
+      <c r="I35" s="17">
         <v>8</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>150</v>
       </c>
@@ -2274,24 +2486,24 @@
       <c r="D36" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E36" s="8">
         <v>4</v>
       </c>
-      <c r="F36" s="20" t="n">
+      <c r="F36" s="20">
         <v>8</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="18">
         <v>9</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>154</v>
       </c>
@@ -2301,13 +2513,13 @@
       <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12" t="n">
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
         <v>4</v>
       </c>
-      <c r="F37" s="13" t="n">
+      <c r="F37" s="13">
         <v>10</v>
       </c>
       <c r="G37" s="14" t="s">
@@ -2316,7 +2528,7 @@
       <c r="H37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="10" t="n">
+      <c r="I37" s="10">
         <v>8</v>
       </c>
       <c r="J37" s="15" t="s">
@@ -2326,7 +2538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>159</v>
       </c>
@@ -2336,13 +2548,13 @@
       <c r="C38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12" t="n">
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
         <v>4</v>
       </c>
-      <c r="F38" s="12" t="n">
+      <c r="F38" s="12">
         <v>8</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2351,14 +2563,14 @@
       <c r="H38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="I38" s="11">
         <v>10</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>162</v>
       </c>
@@ -2368,13 +2580,13 @@
       <c r="C39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12" t="n">
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
         <v>5</v>
       </c>
-      <c r="F39" s="13" t="n">
+      <c r="F39" s="13">
         <v>12</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -2383,14 +2595,14 @@
       <c r="H39" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I39" s="10" t="n">
+      <c r="I39" s="10">
         <v>8</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>166</v>
       </c>
@@ -2400,13 +2612,13 @@
       <c r="C40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8" t="n">
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
         <v>5</v>
       </c>
-      <c r="F40" s="20" t="n">
+      <c r="F40" s="20">
         <v>13</v>
       </c>
       <c r="G40" s="21" t="s">
@@ -2415,14 +2627,14 @@
       <c r="H40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="18" t="n">
+      <c r="I40" s="18">
         <v>14</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>169</v>
       </c>
@@ -2432,33 +2644,35 @@
       <c r="C41" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12" t="n">
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
         <v>5</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="13">
         <v>20</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="I41" s="10">
+        <v>16</v>
       </c>
       <c r="J41" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95174D-6B0A-4F01-A1F3-CC80ABD05B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,76 +27,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piercing Wail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnus surgerus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Piercing Wail</t>
+  </si>
+  <si>
+    <t>magnus surgerus</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
   <si>
     <t xml:space="preserve">All targets in a 10m spherical radius of the caster take 2 points of psychic damage (+3 per PP), and awaken if they are sleeping. </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incendio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A small jet of fire is emitted from the tip of your wand. 
+    <t>Create Fire</t>
+  </si>
+  <si>
+    <t>incendio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>A small jet of fire is emitted from the tip of your wand. 
 Coming into contact with fire does 1d6 fire damage, and applies a minor Burned status effect.</t>
   </si>
   <si>
@@ -102,7 +107,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
+      <t>An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -112,7 +117,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -125,19 +130,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth</t>
+    <t>Create Trap</t>
+  </si>
+  <si>
+    <t>dolus</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Stealth</t>
   </si>
   <si>
     <t xml:space="preserve">Combine a magical ward with one of your existing spells. After casting the trap spell, cast the effect-spell to imbue the trap with that effect. 
@@ -151,7 +156,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 10</t>
+      <t>A character above 10</t>
     </r>
     <r>
       <rPr>
@@ -161,7 +166,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -174,16 +179,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aguamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
+    <t>Create Water</t>
+  </si>
+  <si>
+    <t>aguamente</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
   </si>
   <si>
     <r>
@@ -193,7 +198,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
+      <t>An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
     </r>
     <r>
       <rPr>
@@ -203,7 +208,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -216,34 +221,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fresh Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klinneract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stabit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pale blue bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illuminate Wand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumos</t>
+    <t>Fresh Air</t>
+  </si>
+  <si>
+    <t>klinneract</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>stabit</t>
+  </si>
+  <si>
+    <t>Pale blue bolt</t>
+  </si>
+  <si>
+    <t>Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
+  </si>
+  <si>
+    <t>Illuminate Wand</t>
+  </si>
+  <si>
+    <t>lumos</t>
   </si>
   <si>
     <t xml:space="preserve">INT </t>
@@ -252,13 +257,13 @@
     <t xml:space="preserve">Causes the tip of your wand to glow, like a torch. Casts bright light for 2m radius, and dim light for 10m. Spell last indefinitely, until concentration is broken, and does not require extra FP per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Levitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wingardium leviosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
+    <t>Levitation</t>
+  </si>
+  <si>
+    <t>wingardium leviosa</t>
+  </si>
+  <si>
+    <t>Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
 Each power point dedicated doubles the mass of the object that can be lifted.</t>
   </si>
   <si>
@@ -269,7 +274,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A character above 6</t>
+      <t>A character above 6</t>
     </r>
     <r>
       <rPr>
@@ -279,7 +284,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +303,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -311,50 +316,55 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mark Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dxterity</t>
+    <t>Mark Surface</t>
+  </si>
+  <si>
+    <t>stylum</t>
+  </si>
+  <si>
+    <t>Dxterity</t>
   </si>
   <si>
     <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
   </si>
   <si>
-    <t xml:space="preserve">Preserve Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preseritas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexterity</t>
+    <t>Preserve Object</t>
+  </si>
+  <si>
+    <t>preseritas</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>Silver rays</t>
+  </si>
+  <si>
+    <t>dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cut Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of 10cm in length.
-If used on a living being, causes a deep cut, for 1d4 + 3 slashing damage. </t>
+    <t>Cut Object</t>
+  </si>
+  <si>
+    <t>diffindo</t>
+  </si>
+  <si>
+    <t>Silver flash</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Elemental Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gladio subtantia</t>
+  </si>
+  <si>
+    <t>The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
   </si>
   <si>
     <r>
@@ -364,7 +374,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a character above 6</t>
+      <t>If the caster exceeds 8</t>
     </r>
     <r>
       <rPr>
@@ -374,46 +384,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, the effective knifelength is equal to twice the caster level, in centimetres. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gladio subtantia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">If the caster exceeds 8</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -432,7 +403,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -445,107 +416,101 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Fix Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reparo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bear hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silvam currere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightning Bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baubilious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searing-white lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Health)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
+    <t>Fix Object</t>
+  </si>
+  <si>
+    <t>reparo</t>
+  </si>
+  <si>
+    <t>Green rays</t>
+  </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>silvam currere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>baubilious</t>
+  </si>
+  <si>
+    <t>Searing-white lightning</t>
+  </si>
+  <si>
+    <t>SPR (Health)</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
   <si>
     <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
 Lightning can initiate fires, provide electrical current or can be used directly in combat, where it deals 2d4 electric damage plus 1 \cvdv. Targets struck by lightning must succeed in a Resist check, or be blinded for 2 turns. </t>
   </si>
   <si>
-    <t xml:space="preserve">An expert level caster may do 3 electric damage \cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colloportus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperceptible rays</t>
+    <t>An expert level caster may do 3 electric damage \cvdv.</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>colloportus</t>
+  </si>
+  <si>
+    <t>Imperceptible rays</t>
   </si>
   <si>
     <t xml:space="preserve">Magically lock a door or chest. Mundane attempts to open the lock fail, and magical attempts must exceed the casting check of the locking spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Lockpurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nulsupium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1+PP) minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A target container, such as a backpack, cannot be opened by mundane means. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titillatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dexterity</t>
+    <t>Lockpurse</t>
+  </si>
+  <si>
+    <t>nulsupium</t>
+  </si>
+  <si>
+    <t>(1+PP) minutes</t>
+  </si>
+  <si>
+    <t>Mage Hands</t>
+  </si>
+  <si>
+    <t>titillatio</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. Hands may be moved at a speed of 2m per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">Silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silencio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2+2$\times$PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Willpower)</t>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>silencio</t>
+  </si>
+  <si>
+    <t>(2+2$\times$PP) turns</t>
+  </si>
+  <si>
+    <t>Orange bolt</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>SPR (Willpower)</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails to Resist, they may not speak or otherwise vocalise for the duration of the spell. </t>
@@ -554,40 +519,40 @@
     <t xml:space="preserve">A master-level caster may cast this spell on 1d4 targets within range. </t>
   </si>
   <si>
-    <t xml:space="preserve">Smokescreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumus insterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obharesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple flash</t>
+    <t>Smokescreen</t>
+  </si>
+  <si>
+    <t>fumus insterio</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>obharesco</t>
+  </si>
+  <si>
+    <t>Purple flash</t>
   </si>
   <si>
     <t xml:space="preserve">Stick two objects together, as if you had fused them together at a molecular level. To break them apart requires either slicing the objects apart, or pulling them hard enough to break one (or both) of the objects. </t>
   </si>
   <si>
-    <t xml:space="preserve">Summon Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
+    <t>Summon Object</t>
+  </si>
+  <si>
+    <t>accio</t>
+  </si>
+  <si>
+    <t>Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
   </si>
   <si>
     <r>
@@ -597,7 +562,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If the caster exceeds 11</t>
+      <t>If the caster exceeds 11</t>
     </r>
     <r>
       <rPr>
@@ -607,7 +572,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -620,86 +585,77 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Unlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alohomora</t>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>alohomora</t>
   </si>
   <si>
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Featherweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pluma gravitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
+    <t>Featherweight</t>
+  </si>
+  <si>
+    <t>pluma gravitas</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Make the target object as light as a feather, it does not encumber you.
 (Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
   </si>
   <si>
-    <t xml:space="preserve">Freeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glacius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used the combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Counterspell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finite incantatem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields or curses).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferrus gravitas</t>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>glacius</t>
+  </si>
+  <si>
+    <t>Blue rays</t>
+  </si>
+  <si>
+    <t>When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
+  </si>
+  <si>
+    <t>General Counterspell</t>
+  </si>
+  <si>
+    <t>finite incantatem</t>
+  </si>
+  <si>
+    <t>Golden rays</t>
+  </si>
+  <si>
+    <t>Ironmass</t>
+  </si>
+  <si>
+    <t>ferrus gravitas</t>
   </si>
   <si>
     <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
   </si>
   <si>
-    <t xml:space="preserve">Leapfrog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raneus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target may leap up to 3m in any direction, and land safely whilst the spell is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Flame</t>
+    <t>Leapfrog</t>
+  </si>
+  <si>
+    <t>raneus</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>Manipulate Flame</t>
   </si>
   <si>
     <t xml:space="preserve"> ignipare</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows red</t>
+    <t>Wand-tip glows red</t>
   </si>
   <si>
     <t xml:space="preserve">Take control of an existing fire, and manipulate it to your will, creating walls of fire, or sending it flying towards your enemies.  
@@ -709,13 +665,13 @@
     <t xml:space="preserve">When cast by an expert level caster, fire does 3d8 damage, and a Master-level caster does 5d8. </t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate Water</t>
+    <t>Manipulate Water</t>
   </si>
   <si>
     <t xml:space="preserve"> aguapare</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows blue</t>
+    <t>Wand-tip glows blue</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulate existing bodies of water, creating whirlpools, waves or maelstroms.
@@ -725,104 +681,98 @@
     <t xml:space="preserve">When cast by an expert level caster, turbulent buffeting does 5d4 damage, and a Master-level caster does 7d4. </t>
   </si>
   <si>
-    <t xml:space="preserve">Replay Spell</t>
+    <t>Replay Spell</t>
   </si>
   <si>
     <t xml:space="preserve"> priori incantatem</t>
   </si>
   <si>
-    <t xml:space="preserve">Reveal the last spell that a wand cast.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aranerum fiducia</t>
+    <t>Spider Hands</t>
+  </si>
+  <si>
+    <t>aranerum fiducia</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue the target with the ability to traverse up vertical walls using their hands and feet. Climbing movement checks are half the speed of a regular movement check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cushion Fall</t>
+    <t>Cushion Fall</t>
   </si>
   <si>
     <t xml:space="preserve">sofus </t>
   </si>
   <si>
-    <t xml:space="preserve">Painlessly break the fall of the target from any height up to (100+ $100\times$PP) metres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarditia hoovium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Earth</t>
+    <t>Free Movement</t>
+  </si>
+  <si>
+    <t>liber</t>
+  </si>
+  <si>
+    <t>Silver bolt</t>
+  </si>
+  <si>
+    <t>Remove all impediments to movement if the casting check exceeds the trapping check</t>
+  </si>
+  <si>
+    <t>Internal Extension</t>
+  </si>
+  <si>
+    <t>tarditia hoovium</t>
+  </si>
+  <si>
+    <t>3 minutes</t>
+  </si>
+  <si>
+    <t>Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside.</t>
+  </si>
+  <si>
+    <t>Manipulate Earth</t>
   </si>
   <si>
     <t xml:space="preserve"> defodio </t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
+    <t>Wand-tip glows green</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
 Range is 3m + 1 for every power point dedicated to the spell. More power points also let you perform more extravagant feats. \\ Violent earth manipulation causes 5 + 3d8 of damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a master level caster, tremors do an additional 3d8 damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teleport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cruratele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Air</t>
+    <t>When cast by a master level caster, tremors do an additional 3d8 damage.</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>cruratele</t>
+  </si>
+  <si>
+    <t>Pink rays</t>
+  </si>
+  <si>
+    <t>You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
+  </si>
+  <si>
+    <t>Manipulate Air</t>
   </si>
   <si>
     <t xml:space="preserve"> vente</t>
   </si>
   <si>
-    <t xml:space="preserve">Wand-tip glows white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Kinesis</t>
+    <t>Wand-tip glows white</t>
+  </si>
+  <si>
+    <t>Willpower</t>
+  </si>
+  <si>
+    <t>Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
+  </si>
+  <si>
+    <t>Mass Kinesis</t>
   </si>
   <si>
     <t xml:space="preserve"> ballatutti</t>
@@ -831,49 +781,80 @@
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with multiple blades at once. Can only use the objects if you would normally be able to use them without magic. You may only perform 4 unique actions with the objects, but you may duplicate those exact actions an arbitrary number of times in a 10m radius. For example, you could only copy out 4 books at a time, as each book requires a unique action, but you can copy the same book out as many times as you like, as the action is identical. </t>
   </si>
   <si>
-    <t xml:space="preserve">Planewalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambulo mundus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 minutes)</t>
+    <t>Planewalk</t>
+  </si>
+  <si>
+    <t>ambulo mundus</t>
+  </si>
+  <si>
+    <t>Ritual (2 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">By carefully preparing every atom in your body, you may slip effortlessly between this world and the Astral Realm, without the need for a portal. Your entire body enters into the astral realm, where you may perceive things in both the Mortal World, and the Astral Realm, but you may only interact with the astral realm. Cast this spell again to cross back over. </t>
   </si>
   <si>
     <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
+  </si>
+  <si>
+    <t>Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
+  </si>
+  <si>
+    <t>Painlessly break the fall of the target from any height up to (25+ $25\times$PP) metres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of up to 10cm in length.
+If used on a living being, causes a deep cut, for 1d4 + 3 slashing damage. </t>
+  </si>
+  <si>
+    <r>
+      <t>When cast by a character above 6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the maximum effective knifelength is equal to twice the caster level, in centimetres. </t>
+    </r>
+  </si>
+  <si>
+    <t>Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bare hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A target container, such as a backpack, cannot be opened by mundane means by anyoneother than the caster. </t>
+  </si>
+  <si>
+    <t>Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields, curses or spells which are still being cast).  </t>
+  </si>
+  <si>
+    <t>Target may leap up to (3+PP)m in any direction as a major action, and land safely whilst the spell is active.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -916,14 +897,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -938,7 +919,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -954,133 +935,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1139,40 +1070,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="95.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="36.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
+    <col min="1" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="95.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" style="3" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1226,14 +1464,14 @@
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1242,7 +1480,7 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="7">
         <v>5</v>
       </c>
       <c r="K2" s="7"/>
@@ -1251,7 +1489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1261,21 +1499,21 @@
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="13">
         <v>3</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="10">
         <v>3</v>
       </c>
       <c r="K3" s="10"/>
@@ -1287,7 +1525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -1297,14 +1535,14 @@
       <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="13">
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1313,7 +1551,7 @@
       <c r="I4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="10">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -1325,7 +1563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1335,21 +1573,21 @@
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="13">
         <v>4</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>4</v>
       </c>
       <c r="K5" s="10"/>
@@ -1361,7 +1599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1371,21 +1609,21 @@
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>3</v>
       </c>
       <c r="K6" s="7"/>
@@ -1394,7 +1632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1404,23 +1642,23 @@
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="7">
         <v>4</v>
       </c>
       <c r="K7" s="7"/>
@@ -1429,7 +1667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1439,21 +1677,21 @@
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>2</v>
       </c>
       <c r="K8" s="10"/>
@@ -1462,7 +1700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -1472,21 +1710,21 @@
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="13">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>4</v>
       </c>
       <c r="K9" s="10"/>
@@ -1498,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1508,14 +1746,14 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1524,7 +1762,7 @@
       <c r="I10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>2</v>
       </c>
       <c r="K10" s="7"/>
@@ -1533,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
@@ -1549,10 +1787,10 @@
       <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="8">
         <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1561,7 +1799,7 @@
       <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="7">
         <v>3</v>
       </c>
       <c r="K11" s="7"/>
@@ -1570,7 +1808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>63</v>
       </c>
@@ -1580,16 +1818,16 @@
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="n">
+      <c r="G12" s="13">
         <v>6</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1598,74 +1836,74 @@
       <c r="I12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="10">
         <v>5</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="12">
         <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>8</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="20">
         <v>4</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -1674,612 +1912,612 @@
       <c r="I14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="16">
         <v>6</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="12">
         <v>2</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="12">
         <v>5</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="11">
         <v>5</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="13">
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="10">
         <v>5</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="F17" s="12">
         <v>2</v>
       </c>
-      <c r="G17" s="20" t="n">
+      <c r="G17" s="20">
         <v>5</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="16" t="n">
+      <c r="J17" s="16">
         <v>6</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="1">
         <v>6</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>2</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="12">
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J19" s="11">
         <v>5</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>6</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="16">
+        <v>5</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" s="12">
         <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="11" t="n">
+        <v>108</v>
+      </c>
+      <c r="J21" s="11">
         <v>3</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="F22" s="12">
         <v>2</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="13">
         <v>4</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="10">
         <v>6</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>2</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="13">
         <v>6</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="10">
         <v>6</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12">
         <v>2</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>3</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="J24" s="16">
         <v>5</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="12">
         <v>3</v>
       </c>
-      <c r="G25" s="13" t="n">
+      <c r="G25" s="13">
         <v>8</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J25" s="10">
         <v>7</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="12" t="n">
+        <v>128</v>
+      </c>
+      <c r="F26" s="12">
         <v>3</v>
       </c>
-      <c r="G26" s="13" t="n">
+      <c r="G26" s="13">
         <v>7</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="10">
         <v>7</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="15" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="12" t="n">
+        <v>132</v>
+      </c>
+      <c r="F27" s="12">
         <v>3</v>
       </c>
-      <c r="G27" s="13" t="n">
+      <c r="G27" s="13">
         <v>4</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J27" s="10">
         <v>0</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="16" t="n">
+        <v>124</v>
+      </c>
+      <c r="J28" s="16">
         <v>7</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="12">
         <v>3</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="12">
         <v>5</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="11">
         <v>7</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="12" t="n">
+        <v>141</v>
+      </c>
+      <c r="F30" s="12">
         <v>3</v>
       </c>
-      <c r="G30" s="13" t="n">
+      <c r="G30" s="13">
         <v>6</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="J30" s="10">
         <v>6</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="12" t="n">
+        <v>146</v>
+      </c>
+      <c r="F31" s="12">
         <v>3</v>
       </c>
-      <c r="G31" s="13" t="n">
+      <c r="G31" s="13">
         <v>5</v>
       </c>
       <c r="H31" s="14" t="s">
@@ -2288,249 +2526,249 @@
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="10">
         <v>6</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="12">
         <v>3</v>
       </c>
-      <c r="G32" s="20" t="n">
+      <c r="G32" s="20">
         <v>3</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="16" t="n">
+        <v>124</v>
+      </c>
+      <c r="J32" s="16">
         <v>6</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="12" t="n">
+      <c r="F33" s="12">
         <v>3</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="12">
         <v>6</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="11" t="n">
+        <v>124</v>
+      </c>
+      <c r="J33" s="11">
         <v>9</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="12">
         <v>4</v>
       </c>
-      <c r="G34" s="13" t="n">
+      <c r="G34" s="13">
         <v>7</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="10">
         <v>9</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="18" t="n">
+      <c r="D35" s="18">
         <v>0</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="12" t="n">
+        <v>158</v>
+      </c>
+      <c r="F35" s="12">
         <v>4</v>
       </c>
-      <c r="G35" s="22" t="n">
+      <c r="G35" s="22">
         <v>8</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="18" t="n">
+      <c r="J35" s="18">
         <v>8</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="8">
         <v>4</v>
       </c>
-      <c r="G36" s="20" t="n">
+      <c r="G36" s="20">
         <v>8</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="16" t="n">
+      <c r="J36" s="16">
         <v>9</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="12" t="n">
+        <v>166</v>
+      </c>
+      <c r="F37" s="12">
         <v>4</v>
       </c>
-      <c r="G37" s="13" t="n">
+      <c r="G37" s="13">
         <v>10</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="J37" s="10">
         <v>8</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="12" t="n">
+        <v>172</v>
+      </c>
+      <c r="F38" s="12">
         <v>4</v>
       </c>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="12">
         <v>8</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -2539,70 +2777,70 @@
       <c r="I38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="11" t="n">
+      <c r="J38" s="11">
         <v>10</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="12" t="n">
+        <v>176</v>
+      </c>
+      <c r="F39" s="12">
         <v>5</v>
       </c>
-      <c r="G39" s="13" t="n">
+      <c r="G39" s="13">
         <v>12</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="10" t="n">
+        <v>177</v>
+      </c>
+      <c r="J39" s="10">
         <v>8</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="7">
         <v>0</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="8">
         <v>5</v>
       </c>
-      <c r="G40" s="20" t="n">
+      <c r="G40" s="20">
         <v>13</v>
       </c>
       <c r="H40" s="21" t="s">
@@ -2611,58 +2849,57 @@
       <c r="I40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="16" t="n">
+      <c r="J40" s="16">
         <v>14</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="11" t="n">
+        <v>184</v>
+      </c>
+      <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="12" t="n">
+      <c r="F41" s="12">
         <v>5</v>
       </c>
-      <c r="G41" s="13" t="n">
+      <c r="G41" s="13">
         <v>20</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J41" s="10">
         <v>16</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95174D-6B0A-4F01-A1F3-CC80ABD05B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,76 +22,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Incantation</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>TravelType</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Fortitude</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Proficiency</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Resist</t>
-  </si>
-  <si>
-    <t>ResistDV</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>HigherLevel</t>
-  </si>
-  <si>
-    <t>Piercing Wail</t>
-  </si>
-  <si>
-    <t>magnus surgerus</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>Performance</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TravelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResistDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HigherLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercing Wail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnus surgerus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
   </si>
   <si>
     <t xml:space="preserve">All targets in a 10m spherical radius of the caster take 2 points of psychic damage (+3 per PP), and awaken if they are sleeping. </t>
   </si>
   <si>
-    <t>Create Fire</t>
-  </si>
-  <si>
-    <t>incendio</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>A small jet of fire is emitted from the tip of your wand. 
+    <t xml:space="preserve">Create Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incendio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A small jet of fire is emitted from the tip of your wand. 
 Coming into contact with fire does 1d6 fire damage, and applies a minor Burned status effect.</t>
   </si>
   <si>
@@ -107,7 +102,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
+      <t xml:space="preserve">An Adept-level caster may summon a larger gout of flame, which does an extra 1d6 fire damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -117,7 +112,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>nd</t>
+      <t xml:space="preserve">nd</t>
     </r>
     <r>
       <rPr>
@@ -130,19 +125,19 @@
     </r>
   </si>
   <si>
-    <t>Create Trap</t>
-  </si>
-  <si>
-    <t>dolus</t>
-  </si>
-  <si>
-    <t>Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Stealth</t>
+    <t xml:space="preserve">Create Trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dolus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth</t>
   </si>
   <si>
     <t xml:space="preserve">Combine a magical ward with one of your existing spells. After casting the trap spell, cast the effect-spell to imbue the trap with that effect. 
@@ -156,7 +151,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>A character above 10</t>
+      <t xml:space="preserve">A character above 10</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +161,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -179,16 +174,16 @@
     </r>
   </si>
   <si>
-    <t>Create Water</t>
-  </si>
-  <si>
-    <t>aguamente</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
+    <t xml:space="preserve">Create Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aguamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jet of water is emitted from the tip of your wand, useful for extinguishing fires, or cleaning surfaces, however conjured water cannot be drunk.</t>
   </si>
   <si>
     <r>
@@ -198,7 +193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
+      <t xml:space="preserve">An adept-level caster may summon a torrent of water, which does 1d4 bludgeoning damage for every 3 character levels above 3</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +203,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>rd</t>
+      <t xml:space="preserve">rd</t>
     </r>
     <r>
       <rPr>
@@ -221,34 +216,34 @@
     </r>
   </si>
   <si>
-    <t>Fresh Air</t>
-  </si>
-  <si>
-    <t>klinneract</t>
-  </si>
-  <si>
-    <t>POW</t>
-  </si>
-  <si>
-    <t>A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
-  </si>
-  <si>
-    <t>Halt</t>
-  </si>
-  <si>
-    <t>stabit</t>
-  </si>
-  <si>
-    <t>Pale blue bolt</t>
-  </si>
-  <si>
-    <t>Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
-  </si>
-  <si>
-    <t>Illuminate Wand</t>
-  </si>
-  <si>
-    <t>lumos</t>
+    <t xml:space="preserve">Fresh Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klinneract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gust of air refreshes the air in a sphere of radius (2 + PP) metres around the caster, removing any gaseous effects and smelling faintly of lavender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stabit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pale blue bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illuminate Wand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumos</t>
   </si>
   <si>
     <t xml:space="preserve">INT </t>
@@ -257,13 +252,13 @@
     <t xml:space="preserve">Causes the tip of your wand to glow, like a torch. Casts bright light for 2m radius, and dim light for 10m. Spell last indefinitely, until concentration is broken, and does not require extra FP per turn. </t>
   </si>
   <si>
-    <t>Levitation</t>
-  </si>
-  <si>
-    <t>wingardium leviosa</t>
-  </si>
-  <si>
-    <t>Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
+    <t xml:space="preserve">Levitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wingardium leviosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause an object of 500g or less to levitate, controlling the vertical distance at will. 
 Each power point dedicated doubles the mass of the object that can be lifted.</t>
   </si>
   <si>
@@ -274,7 +269,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>A character above 6</t>
+      <t xml:space="preserve">A character above 6</t>
     </r>
     <r>
       <rPr>
@@ -284,7 +279,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -303,7 +298,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>rd</t>
+      <t xml:space="preserve">rd</t>
     </r>
     <r>
       <rPr>
@@ -316,55 +311,50 @@
     </r>
   </si>
   <si>
-    <t>Mark Surface</t>
-  </si>
-  <si>
-    <t>stylum</t>
-  </si>
-  <si>
-    <t>Dxterity</t>
+    <t xml:space="preserve">Mark Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stylum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dxterity</t>
   </si>
   <si>
     <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
   </si>
   <si>
-    <t>Preserve Object</t>
-  </si>
-  <si>
-    <t>preseritas</t>
-  </si>
-  <si>
-    <t>10 days</t>
-  </si>
-  <si>
-    <t>Silver rays</t>
-  </si>
-  <si>
-    <t>dexterity</t>
+    <t xml:space="preserve">Preserve Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preseritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
   </si>
   <si>
-    <t>Cut Object</t>
-  </si>
-  <si>
-    <t>diffindo</t>
-  </si>
-  <si>
-    <t>Silver flash</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Elemental Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gladio subtantia</t>
-  </si>
-  <si>
-    <t>The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
+    <t xml:space="preserve">Cut Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of up to 10cm in length.
+If used on a living being, causes a deep cut, for 1d4 + 3 slashing damage. </t>
   </si>
   <si>
     <r>
@@ -374,7 +364,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>If the caster exceeds 8</t>
+      <t xml:space="preserve">When cast by a character above 6</t>
     </r>
     <r>
       <rPr>
@@ -384,7 +374,46 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the maximum effective knifelength is equal to twice the caster level, in centimetres. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gladio subtantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elements are bent to your will, and a blade of nature-incarnate solidifies around your wand. You now wield a 1d8+2 sword made out of pure fire, ice, lightning or earth, held together by your strength of will. In addition to the physical cutting effect, this blade also imparts an elemental effect: \begin{itemize} \item Fire: additional 1d6 fire damage \item Ice: additional 1d6 cold damage \item Lightning: additional 1d6 electric damage \item Earth: additional 1d6 bludgeoning damage \end{itemize}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">If the caster exceeds 8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -403,7 +432,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>nd</t>
+      <t xml:space="preserve">nd</t>
     </r>
     <r>
       <rPr>
@@ -416,101 +445,107 @@
     </r>
   </si>
   <si>
-    <t>Fix Object</t>
-  </si>
-  <si>
-    <t>reparo</t>
-  </si>
-  <si>
-    <t>Green rays</t>
-  </si>
-  <si>
-    <t>Haste</t>
-  </si>
-  <si>
-    <t>silvam currere</t>
-  </si>
-  <si>
-    <t>5 minutes</t>
-  </si>
-  <si>
-    <t>The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
-  </si>
-  <si>
-    <t>Lightning Bolt</t>
-  </si>
-  <si>
-    <t>baubilious</t>
-  </si>
-  <si>
-    <t>Searing-white lightning</t>
-  </si>
-  <si>
-    <t>SPR (Health)</t>
-  </si>
-  <si>
-    <t>CC</t>
+    <t xml:space="preserve">Fix Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reparo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bare hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silvam currere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target has their Speed proficiency increased by (1+PP) points for the duration of the spell. At the end of the effect, target must take 1 turn to rest and recover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning Bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baubilious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searing-white lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (Health)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
   </si>
   <si>
     <t xml:space="preserve">Releases a bolt of lightning from the end of your wand. 
 Lightning can initiate fires, provide electrical current or can be used directly in combat, where it deals 2d4 electric damage plus 1 \cvdv. Targets struck by lightning must succeed in a Resist check, or be blinded for 2 turns. </t>
   </si>
   <si>
-    <t>An expert level caster may do 3 electric damage \cvdv.</t>
-  </si>
-  <si>
-    <t>Lock</t>
-  </si>
-  <si>
-    <t>colloportus</t>
-  </si>
-  <si>
-    <t>Imperceptible rays</t>
+    <t xml:space="preserve">An expert level caster may do 3 electric damage \cvdv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colloportus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperceptible rays</t>
   </si>
   <si>
     <t xml:space="preserve">Magically lock a door or chest. Mundane attempts to open the lock fail, and magical attempts must exceed the casting check of the locking spell. </t>
   </si>
   <si>
-    <t>Lockpurse</t>
-  </si>
-  <si>
-    <t>nulsupium</t>
-  </si>
-  <si>
-    <t>(1+PP) minutes</t>
-  </si>
-  <si>
-    <t>Mage Hands</t>
-  </si>
-  <si>
-    <t>titillatio</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
+    <t xml:space="preserve">Lockpurse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nulsupium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1+PP) minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A target container, such as a backpack, cannot be opened by mundane means by anyoneother than the caster. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titillatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexterity</t>
   </si>
   <si>
     <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. Hands may be moved at a speed of 2m per turn. </t>
   </si>
   <si>
-    <t>Silence</t>
-  </si>
-  <si>
-    <t>silencio</t>
-  </si>
-  <si>
-    <t>(2+2$\times$PP) turns</t>
-  </si>
-  <si>
-    <t>Orange bolt</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>Persuasion</t>
-  </si>
-  <si>
-    <t>SPR (Willpower)</t>
+    <t xml:space="preserve">Silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2+2$\times$PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (Willpower)</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails to Resist, they may not speak or otherwise vocalise for the duration of the spell. </t>
@@ -519,40 +554,40 @@
     <t xml:space="preserve">A master-level caster may cast this spell on 1d4 targets within range. </t>
   </si>
   <si>
-    <t>Smokescreen</t>
-  </si>
-  <si>
-    <t>fumus insterio</t>
-  </si>
-  <si>
-    <t>2 minutes</t>
-  </si>
-  <si>
-    <t>Deception</t>
-  </si>
-  <si>
-    <t>Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
-  </si>
-  <si>
-    <t>Stick</t>
-  </si>
-  <si>
-    <t>obharesco</t>
-  </si>
-  <si>
-    <t>Purple flash</t>
+    <t xml:space="preserve">Smokescreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fumus insterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick white smoke issues from the end of your wand, filling a sphere 10m in radius, giving a Severe obscuration for all targets within range. In a confined area, duration is doubled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obharesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple flash</t>
   </si>
   <si>
     <t xml:space="preserve">Stick two objects together, as if you had fused them together at a molecular level. To break them apart requires either slicing the objects apart, or pulling them hard enough to break one (or both) of the objects. </t>
   </si>
   <si>
-    <t>Summon Object</t>
-  </si>
-  <si>
-    <t>accio</t>
-  </si>
-  <si>
-    <t>Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
+    <t xml:space="preserve">Summon Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon non-shielded objects within a 500m radius. They will fly to your current position at a speed of 50m per cycle as long as concentration is maintained. Objects must be light enough that the caster could reasonably pick it up.</t>
   </si>
   <si>
     <r>
@@ -562,7 +597,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>If the caster exceeds 11</t>
+      <t xml:space="preserve">If the caster exceeds 11</t>
     </r>
     <r>
       <rPr>
@@ -572,7 +607,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -585,77 +620,86 @@
     </r>
   </si>
   <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>alohomora</t>
+    <t xml:space="preserve">Unlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alohomora</t>
   </si>
   <si>
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
-    <t>Featherweight</t>
-  </si>
-  <si>
-    <t>pluma gravitas</t>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>Arcane</t>
-  </si>
-  <si>
-    <t>Make the target object as light as a feather, it does not encumber you.
+    <t xml:space="preserve">Featherweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pluma gravitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
 (Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
   </si>
   <si>
-    <t>Freeze</t>
-  </si>
-  <si>
-    <t>glacius</t>
-  </si>
-  <si>
-    <t>Blue rays</t>
-  </si>
-  <si>
-    <t>When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
-  </si>
-  <si>
-    <t>General Counterspell</t>
-  </si>
-  <si>
-    <t>finite incantatem</t>
-  </si>
-  <si>
-    <t>Golden rays</t>
-  </si>
-  <si>
-    <t>Ironmass</t>
-  </si>
-  <si>
-    <t>ferrus gravitas</t>
+    <t xml:space="preserve">Freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glacius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Counterspell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finite incantatem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields, curses or spells which are still being cast).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrus gravitas</t>
   </si>
   <si>
     <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
   </si>
   <si>
-    <t>Leapfrog</t>
-  </si>
-  <si>
-    <t>raneus</t>
-  </si>
-  <si>
-    <t>1 minute</t>
-  </si>
-  <si>
-    <t>Manipulate Flame</t>
+    <t xml:space="preserve">Leapfrog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target may leap up to (3+PP)m in any direction as a major action, and land safely whilst the spell is active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate Flame</t>
   </si>
   <si>
     <t xml:space="preserve"> ignipare</t>
   </si>
   <si>
-    <t>Wand-tip glows red</t>
+    <t xml:space="preserve">Wand-tip glows red</t>
   </si>
   <si>
     <t xml:space="preserve">Take control of an existing fire, and manipulate it to your will, creating walls of fire, or sending it flying towards your enemies.  
@@ -665,13 +709,13 @@
     <t xml:space="preserve">When cast by an expert level caster, fire does 3d8 damage, and a Master-level caster does 5d8. </t>
   </si>
   <si>
-    <t>Manipulate Water</t>
+    <t xml:space="preserve">Manipulate Water</t>
   </si>
   <si>
     <t xml:space="preserve"> aguapare</t>
   </si>
   <si>
-    <t>Wand-tip glows blue</t>
+    <t xml:space="preserve">Wand-tip glows blue</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulate existing bodies of water, creating whirlpools, waves or maelstroms.
@@ -681,98 +725,104 @@
     <t xml:space="preserve">When cast by an expert level caster, turbulent buffeting does 5d4 damage, and a Master-level caster does 7d4. </t>
   </si>
   <si>
-    <t>Replay Spell</t>
+    <t xml:space="preserve">Replay Spell</t>
   </si>
   <si>
     <t xml:space="preserve"> priori incantatem</t>
   </si>
   <si>
-    <t>Spider Hands</t>
-  </si>
-  <si>
-    <t>aranerum fiducia</t>
+    <t xml:space="preserve">Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aranerum fiducia</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue the target with the ability to traverse up vertical walls using their hands and feet. Climbing movement checks are half the speed of a regular movement check. </t>
   </si>
   <si>
-    <t>Cushion Fall</t>
+    <t xml:space="preserve">Cushion Fall</t>
   </si>
   <si>
     <t xml:space="preserve">sofus </t>
   </si>
   <si>
-    <t>Free Movement</t>
-  </si>
-  <si>
-    <t>liber</t>
-  </si>
-  <si>
-    <t>Silver bolt</t>
-  </si>
-  <si>
-    <t>Remove all impediments to movement if the casting check exceeds the trapping check</t>
-  </si>
-  <si>
-    <t>Internal Extension</t>
-  </si>
-  <si>
-    <t>tarditia hoovium</t>
-  </si>
-  <si>
-    <t>3 minutes</t>
-  </si>
-  <si>
-    <t>Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside.</t>
-  </si>
-  <si>
-    <t>Manipulate Earth</t>
+    <t xml:space="preserve">Painlessly break the fall of the target from any height up to (25+ $25\times$PP) metres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all impediments to movement if the casting check exceeds the trapping check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarditia poppinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes the target container 2 times (+1 for each power point) larger on the inside than it is on the outside, and divides the total weight by the same factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate Earth</t>
   </si>
   <si>
     <t xml:space="preserve"> defodio </t>
   </si>
   <si>
-    <t>Wand-tip glows green</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
+    <t xml:space="preserve">Wand-tip glows green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
 Range is 3m + 1 for every power point dedicated to the spell. More power points also let you perform more extravagant feats. \\ Violent earth manipulation causes 5 + 3d8 of damage.</t>
   </si>
   <si>
-    <t>When cast by a master level caster, tremors do an additional 3d8 damage.</t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>cruratele</t>
-  </si>
-  <si>
-    <t>Pink rays</t>
-  </si>
-  <si>
-    <t>You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
-  </si>
-  <si>
-    <t>Manipulate Air</t>
+    <t xml:space="preserve">When cast by a master level caster, tremors do an additional 3d8 damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teleport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cruratele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may send a non-living object to anywhere that you have previously visited. Spell failure still teleports the object, but to an unknown location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate Air</t>
   </si>
   <si>
     <t xml:space="preserve"> vente</t>
   </si>
   <si>
-    <t>Wand-tip glows white</t>
-  </si>
-  <si>
-    <t>Willpower</t>
-  </si>
-  <si>
-    <t>Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
-  </si>
-  <si>
-    <t>Mass Kinesis</t>
+    <t xml:space="preserve">Wand-tip glows white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control the air around you. Can be used to manipulate the weather, blow enemies off their feet, deflect objects, and there are even rumours of people using it to fly! Range is (8+PP) metres. Choose from: \begin{itemize} \item With PP$\geq 0$, may cause a hurricane doing (1+PP)d12 bludgeoning damage \item PP $\geq 4$ may summon a storm to do PPd20 electric OR cold damage \item PP $\geq 7$ you may use the wind to allow yourself (or another target) to fly unaided for $3 \times$ PP minutes  at a speed of 40 metres per cycle\end{itemize}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Kinesis</t>
   </si>
   <si>
     <t xml:space="preserve"> ballatutti</t>
@@ -781,80 +831,49 @@
     <t xml:space="preserve">Control huge numbers of objects as they levitate and move around: write a thousand books with a thousand quills, or conduct a swordfight with multiple blades at once. Can only use the objects if you would normally be able to use them without magic. You may only perform 4 unique actions with the objects, but you may duplicate those exact actions an arbitrary number of times in a 10m radius. For example, you could only copy out 4 books at a time, as each book requires a unique action, but you can copy the same book out as many times as you like, as the action is identical. </t>
   </si>
   <si>
-    <t>Planewalk</t>
-  </si>
-  <si>
-    <t>ambulo mundus</t>
-  </si>
-  <si>
-    <t>Ritual (2 minutes)</t>
+    <t xml:space="preserve">Planewalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambulo mundus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (2 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">By carefully preparing every atom in your body, you may slip effortlessly between this world and the Astral Realm, without the need for a portal. Your entire body enters into the astral realm, where you may perceive things in both the Mortal World, and the Astral Realm, but you may only interact with the astral realm. Cast this spell again to cross back over. </t>
   </si>
   <si>
     <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
-  </si>
-  <si>
-    <t>Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
-  </si>
-  <si>
-    <t>Painlessly break the fall of the target from any height up to (25+ $25\times$PP) metres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut into an object, as if you had wielded a sharp knife with a blade of up to 10cm in length.
-If used on a living being, causes a deep cut, for 1d4 + 3 slashing damage. </t>
-  </si>
-  <si>
-    <r>
-      <t>When cast by a character above 6</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, the maximum effective knifelength is equal to twice the caster level, in centimetres. </t>
-    </r>
-  </si>
-  <si>
-    <t>Fix the target. Can only fix an object if it is reasonable that you could have repaired it with your bare hands (i.e. you cannot repair complex machinery without expert knowledge). Simple tasks (i.e. repairing glasses) work in a single turn, but repairing larger structures (i.e. a full stained glass window) require continued concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A target container, such as a backpack, cannot be opened by mundane means by anyoneother than the caster. </t>
-  </si>
-  <si>
-    <t>Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields, curses or spells which are still being cast).  </t>
-  </si>
-  <si>
-    <t>Target may leap up to (3+PP)m in any direction as a major action, and land safely whilst the spell is active.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -897,14 +916,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -919,7 +938,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -935,83 +954,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1070,347 +1139,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="31.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="8" width="11.5703125" style="2"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1"/>
-    <col min="11" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="95.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="36.85546875" style="3" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="95.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="36.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1464,14 +1226,14 @@
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="8">
+      <c r="F2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1480,7 +1242,7 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K2" s="7"/>
@@ -1489,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1499,21 +1261,21 @@
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12">
+      <c r="F3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="13" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="10">
+      <c r="J3" s="10" t="n">
         <v>3</v>
       </c>
       <c r="K3" s="10"/>
@@ -1525,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -1535,14 +1297,14 @@
       <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="8">
+      <c r="F4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1551,7 +1313,7 @@
       <c r="I4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="10" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -1563,7 +1325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1573,21 +1335,21 @@
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="12">
+      <c r="F5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="10">
+      <c r="J5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="K5" s="10"/>
@@ -1599,7 +1361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1609,21 +1371,21 @@
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="8">
+      <c r="F6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="J6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K6" s="7"/>
@@ -1632,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1642,23 +1404,23 @@
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="J7" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K7" s="7"/>
@@ -1667,7 +1429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1677,21 +1439,21 @@
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="8">
+      <c r="F8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="13" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="10">
+      <c r="J8" s="10" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="10"/>
@@ -1700,7 +1462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -1710,21 +1472,21 @@
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="12">
+      <c r="F9" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="10">
+      <c r="J9" s="10" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="10"/>
@@ -1736,7 +1498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1746,14 +1508,14 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="8">
+      <c r="F10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1762,7 +1524,7 @@
       <c r="I10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K10" s="7"/>
@@ -1771,7 +1533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
@@ -1787,10 +1549,10 @@
       <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1799,7 +1561,7 @@
       <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K11" s="7"/>
@@ -1808,7 +1570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>63</v>
       </c>
@@ -1818,16 +1580,16 @@
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="13" t="n">
         <v>6</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1836,74 +1598,74 @@
       <c r="I12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="10" t="n">
         <v>5</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="15" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="12">
+      <c r="F13" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="12" t="n">
         <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="J13" s="11" t="n">
         <v>8</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="8">
+        <v>75</v>
+      </c>
+      <c r="F14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="20" t="n">
         <v>4</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -1912,612 +1674,612 @@
       <c r="I14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="12">
+      <c r="F15" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="11">
+      <c r="J15" s="11" t="n">
         <v>5</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="8">
+        <v>83</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="13" t="n">
         <v>8</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="10">
+      <c r="J16" s="10" t="n">
         <v>5</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="12">
+        <v>90</v>
+      </c>
+      <c r="F17" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="16">
+      <c r="J17" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="2">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="2" t="n">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="8">
+      <c r="F19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="11">
+        <v>98</v>
+      </c>
+      <c r="J19" s="11" t="n">
         <v>5</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="12">
+        <v>103</v>
+      </c>
+      <c r="F20" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="16">
+        <v>105</v>
+      </c>
+      <c r="J20" s="16" t="n">
         <v>5</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="8">
+      <c r="F21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="11">
+        <v>112</v>
+      </c>
+      <c r="J21" s="11" t="n">
         <v>3</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="12">
+        <v>116</v>
+      </c>
+      <c r="F22" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="10">
+      <c r="J22" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="8">
+      <c r="F23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="13" t="n">
         <v>6</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="10">
+      <c r="J23" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="12">
+        <v>90</v>
+      </c>
+      <c r="F24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="16">
+        <v>98</v>
+      </c>
+      <c r="J24" s="16" t="n">
         <v>5</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="12">
+      <c r="F25" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="13" t="n">
         <v>8</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="10">
+        <v>128</v>
+      </c>
+      <c r="J25" s="10" t="n">
         <v>7</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="12">
+        <v>132</v>
+      </c>
+      <c r="F26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="13" t="n">
         <v>7</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="10">
+      <c r="J26" s="10" t="n">
         <v>7</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="15" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="12">
+        <v>137</v>
+      </c>
+      <c r="F27" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="10">
+        <v>128</v>
+      </c>
+      <c r="J27" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="12">
+      <c r="F28" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="20" t="n">
         <v>8</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="16">
+        <v>128</v>
+      </c>
+      <c r="J28" s="16" t="n">
         <v>7</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="12">
+      <c r="F29" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="11">
+      <c r="J29" s="11" t="n">
         <v>7</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="12">
+        <v>148</v>
+      </c>
+      <c r="F30" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="13" t="n">
         <v>6</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="10">
+        <v>98</v>
+      </c>
+      <c r="J30" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="12">
+        <v>153</v>
+      </c>
+      <c r="F31" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H31" s="14" t="s">
@@ -2526,249 +2288,249 @@
       <c r="I31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="12">
+      <c r="F32" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="16">
+        <v>128</v>
+      </c>
+      <c r="J32" s="16" t="n">
         <v>6</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="12">
+      <c r="F33" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="12" t="n">
         <v>6</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J33" s="11">
+        <v>128</v>
+      </c>
+      <c r="J33" s="11" t="n">
         <v>9</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="12">
+      <c r="F34" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="13" t="n">
         <v>7</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="10">
+      <c r="J34" s="10" t="n">
         <v>9</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="12">
+        <v>167</v>
+      </c>
+      <c r="F35" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="22" t="n">
         <v>8</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="18">
+      <c r="J35" s="18" t="n">
         <v>8</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="8">
+      <c r="F36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="20" t="n">
         <v>8</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="16">
+      <c r="J36" s="16" t="n">
         <v>9</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="36" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="12">
+        <v>175</v>
+      </c>
+      <c r="F37" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="13" t="n">
         <v>10</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J37" s="10">
+        <v>176</v>
+      </c>
+      <c r="J37" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="12">
+        <v>181</v>
+      </c>
+      <c r="F38" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="n">
         <v>8</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -2777,70 +2539,70 @@
       <c r="I38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="11" t="n">
         <v>10</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="12">
+        <v>185</v>
+      </c>
+      <c r="F39" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="13" t="n">
         <v>12</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J39" s="10">
+        <v>186</v>
+      </c>
+      <c r="J39" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="8">
+      <c r="F40" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="20" t="n">
         <v>13</v>
       </c>
       <c r="H40" s="21" t="s">
@@ -2849,57 +2611,58 @@
       <c r="I40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="16" t="n">
         <v>14</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="11">
+        <v>193</v>
+      </c>
+      <c r="D41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="12">
+      <c r="F41" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J41" s="10">
+        <v>128</v>
+      </c>
+      <c r="J41" s="10" t="n">
         <v>16</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="17" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/charms.xlsx
+++ b/CoreRulebook/Data/charms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="204">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Create Trap</t>
   </si>
   <si>
-    <t xml:space="preserve">dolus</t>
+    <t xml:space="preserve">`</t>
   </si>
   <si>
     <t xml:space="preserve">Ritual (3 turns)</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pale blue bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength</t>
   </si>
   <si>
     <t xml:space="preserve">Stop 1 inanimate object in its tracks, if mid-air, it drops to the ground. If the target is particularly small or fast (i.e. an arrow in mid-flight) the caster must pass a FIN(precision) check (DV 12) in order to hit the target.</t>
@@ -317,28 +320,53 @@
     <t xml:space="preserve">stylum</t>
   </si>
   <si>
-    <t xml:space="preserve">Dxterity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush, the {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preserve Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preseritas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexterity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
+    <t xml:space="preserve">Dexterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use your wand as anything from a thin marker to a thick paintbrush. The tip of the {\it brush} can be up to 0.5m away from the tip of your wand, but follows the motion of your wand exactly. The {\it paint} is a magical adhesive that sticks to any surface, and may be of any colour you choose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an adept-level caster, the distance between the tip of the wand and the writing surface increases to half the character level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean Surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pullundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erase magical and mundane markings from a surface. Cleans 1 square metre per turn that the spell is maintained. 
+When erasing magical runes, there is a chance for the rune to trigger. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by an expert-level caster, the rune-trigger probability is decreased by 25\% for every 3 character levels over 12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Cut Object</t>
@@ -521,9 +549,6 @@
     <t xml:space="preserve">titillatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Dexterity</t>
-  </si>
-  <si>
     <t xml:space="preserve">The caster produces an ethereal pair of hands that lasts whilst the spell is maintained. You can use your major action to controI the hands. You can use the hand to manipulate an object, open an unlocked door or container, stow or retrieve an item from an open container, or pour the contents out of a vial, but cannot use them to attack. Hands may be moved at a speed of 2m per turn. </t>
   </si>
   <si>
@@ -629,56 +654,34 @@
     <t xml:space="preserve">Unlock objects. Mundane locks will fall open for you, whilst to open magically locked objects, the unlocking must exceed the locking casting check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Featherweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pluma gravitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
+    <t xml:space="preserve">Freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glacius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Counterspell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finite incantatem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden rays</t>
   </si>
   <si>
     <t xml:space="preserve">Arcane</t>
   </si>
   <si>
-    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
-(Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glacius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower the temperature in a cone extending up to 4m out of your wand by 40 degrees celsius, freezing the target.  When used in combat, trap the target in place and do cold damage equal to 1d6 plus 1 \cvdv. The target is trapped until they are thawed out, at which point the Frostbite status is applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, the temperature drop is 100 degrees, and the damage done increases to 1d12 + 2\cvdv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Counterspell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finite incantatem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden rays</t>
-  </si>
-  <si>
     <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell check must exceed the original casting check (does not work on enemy shields, curses or spells which are still being cast).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferrus gravitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
   </si>
   <si>
     <t xml:space="preserve">Leapfrog</t>
@@ -785,9 +788,6 @@
     <t xml:space="preserve">Wand-tip glows green</t>
   </si>
   <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control the very ground itself. Form sinkholes, dig holes, or even cause minor earthquakes.
 Range is 3m + 1 for every power point dedicated to the spell. More power points also let you perform more extravagant feats. \\ Violent earth manipulation causes 5 + 3d8 of damage.</t>
   </si>
@@ -844,6 +844,57 @@
   </si>
   <si>
     <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge the tip of your wand with electrical energy. This energy is discharged when your wand-tip next touches a surface. Does 2 electrical damage on contact, and also fries any electrical equipment it comes into contact with. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatterblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tootanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shockwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH (Health)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release a shockwave of sonic energy in a radius (1+PP)m, which causes all brittle objects to shatter. All objects made of crystal, glass, ceramic or porcelain lighter are shattered into many hundreds of pieces unless they weigh more than your Character level (in kg). Crystalline entities take 2d6 force damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a Master-level caster, you can also effect objects made of stone up to 10kg in weight. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tootanus focum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus an ultrasonic vibration into a single target object or being made of crystal, class, ceramic or porcelain, and cause it to break. The tip of your wand must touch the target for the duration of the spell, and the spell gets stronger the longer it is maintained. In the first turn shatters objects 5kg or lighter, and then doubles every subsequent turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a Master-level caster, you can also effect objects made of stone up to 200kg in weight. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launder Clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">savatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm glow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and dry the targeted fabrics, leaving them comfortably warm and smelling faintly of lavender. Can be used on clothes worn by a being, or on a stack of up to 5 outfits. </t>
   </si>
 </sst>
 </file>
@@ -853,7 +904,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -883,12 +934,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -979,7 +1024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1020,19 +1065,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,14 +1081,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,8 +1089,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1074,12 +1107,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1149,22 +1182,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="95.85"/>
@@ -1172,7 +1205,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1251,43 +1284,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="n">
+      <c r="D3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="10" t="n">
         <v>3</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -1300,17 +1333,17 @@
       <c r="D4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="10" t="n">
@@ -1318,50 +1351,50 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    <row r="5" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="n">
+      <c r="D5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1410,7 +1443,7 @@
       <c r="E7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="n">
@@ -1419,91 +1452,93 @@
       <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="J7" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="15"/>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="10" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="n">
+      <c r="D9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="10" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="15" t="s">
-        <v>51</v>
+      <c r="M9" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>22</v>
@@ -1522,80 +1557,78 @@
         <v>28</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="M10" s="15" t="s">
         <v>57</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="n">
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="12" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="n">
+      <c r="G12" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="10" t="n">
@@ -1603,54 +1636,54 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="13" t="s">
         <v>67</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+    <row r="13" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="n">
+      <c r="D13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="n">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="15" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="13" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+    <row r="14" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1665,68 +1698,68 @@
       <c r="F14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+    <row r="15" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="n">
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="n">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="15" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1735,13 +1768,13 @@
       <c r="F16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="10" t="n">
         <v>5</v>
       </c>
@@ -1751,18 +1784,18 @@
       <c r="L16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="13" t="s">
         <v>86</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1774,26 +1807,26 @@
       <c r="E17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="20" t="n">
+      <c r="G17" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="16" t="n">
+      <c r="J17" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1822,195 +1855,195 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+    <row r="19" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="15" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="B20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="9" t="s">
+      <c r="N20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="3" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="15" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="3" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>16</v>
@@ -2021,641 +2054,715 @@
       <c r="E24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="J24" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="I25" s="10"/>
       <c r="J25" s="10" t="n">
         <v>7</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="11"/>
       <c r="J26" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="N26" s="3" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="12" t="n">
+      <c r="E27" s="10"/>
+      <c r="F27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="G27" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="10"/>
       <c r="J27" s="10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="9" t="s">
+      <c r="G28" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="N28" s="3" t="s">
         <v>142</v>
       </c>
+    </row>
+    <row r="29" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="B29" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12" t="n">
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="11" t="n">
         <v>5</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="I29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="N29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="B30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="H30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="12" t="n">
+      <c r="C31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="G31" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="B32" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="C32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="16" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="B33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="21" t="s">
+      <c r="D33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12" t="n">
+      <c r="D36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" s="22" t="n">
+      <c r="G36" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G36" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G37" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="H37" s="14" t="s">
+      <c r="D37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>176</v>
+      <c r="I37" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="J37" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="N37" s="3" t="s">
+      <c r="M37" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+    <row r="38" customFormat="false" ht="46.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="43.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="10" t="n">
         <v>16</v>
-      </c>
-      <c r="D38" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G38" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="10" t="n">
-        <v>8</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="15" t="s">
+      <c r="M39" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
+      <c r="B40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="7" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="J41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="17" t="s">
+      <c r="L41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>194</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
